--- a/DM_input_4200.xlsx
+++ b/DM_input_4200.xlsx
@@ -181,16 +181,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -204,21 +196,6 @@
       <family val="2"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -255,35 +232,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -591,16 +555,16 @@
   <dimension ref="A1:P37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M18" sqref="M18"/>
+      <selection activeCell="U20" sqref="U20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="4" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.42578125" style="4" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.140625" style="4" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="6.7109375" bestFit="1" customWidth="1"/>
     <col min="10" max="11" width="6.5703125" bestFit="1" customWidth="1"/>
   </cols>
@@ -618,16 +582,16 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
@@ -636,7 +600,7 @@
       <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="3" t="s">
         <v>10</v>
       </c>
       <c r="L1" s="1" t="s">
@@ -655,7 +619,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>16</v>
       </c>
@@ -674,22 +638,22 @@
       <c r="F2" s="2">
         <v>17.5</v>
       </c>
-      <c r="G2">
-        <v>37</v>
-      </c>
-      <c r="H2" s="3">
+      <c r="G2" s="4">
+        <v>37</v>
+      </c>
+      <c r="H2" s="8">
         <v>28.803999999999998</v>
       </c>
-      <c r="I2" s="10">
+      <c r="I2" s="4">
         <v>7.41</v>
       </c>
-      <c r="J2" s="10">
+      <c r="J2" s="4">
         <v>7.23</v>
       </c>
-      <c r="K2" s="11">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="L2" s="12">
+      <c r="K2" s="5">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="L2" s="6">
         <v>19.835000000000001</v>
       </c>
       <c r="M2" t="s">
@@ -705,7 +669,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="3" spans="1:16" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>17</v>
       </c>
@@ -718,29 +682,29 @@
       <c r="D3" s="1">
         <v>0</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="5">
         <f>P3+0.4</f>
         <v>45.1</v>
       </c>
       <c r="F3" s="2">
         <v>18.7</v>
       </c>
-      <c r="G3" s="1">
-        <v>37</v>
-      </c>
-      <c r="H3" s="17">
+      <c r="G3" s="4">
+        <v>37</v>
+      </c>
+      <c r="H3" s="8">
         <v>31.314</v>
       </c>
-      <c r="I3" s="10">
+      <c r="I3" s="4">
         <v>7.39</v>
       </c>
-      <c r="J3" s="10">
+      <c r="J3" s="4">
         <v>7.23</v>
       </c>
-      <c r="K3" s="11">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="L3" s="16">
+      <c r="K3" s="5">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="L3" s="7">
         <v>11.819000000000001</v>
       </c>
       <c r="M3" s="1">
@@ -756,7 +720,7 @@
         <v>44.7</v>
       </c>
     </row>
-    <row r="4" spans="1:16" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>18</v>
       </c>
@@ -769,29 +733,29 @@
       <c r="D4" s="1">
         <v>0</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="5">
         <f>P4+0.4</f>
         <v>45</v>
       </c>
       <c r="F4" s="2">
         <v>16</v>
       </c>
-      <c r="G4" s="1">
-        <v>37</v>
-      </c>
-      <c r="H4" s="17">
+      <c r="G4" s="4">
+        <v>37</v>
+      </c>
+      <c r="H4" s="8">
         <v>29.98</v>
       </c>
-      <c r="I4" s="10">
+      <c r="I4" s="4">
         <v>7.45</v>
       </c>
-      <c r="J4" s="10">
+      <c r="J4" s="4">
         <v>7.26</v>
       </c>
-      <c r="K4" s="11">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="L4" s="16">
+      <c r="K4" s="5">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="L4" s="7">
         <v>15.394285714285701</v>
       </c>
       <c r="M4" s="1">
@@ -807,7 +771,7 @@
         <v>44.6</v>
       </c>
     </row>
-    <row r="5" spans="1:16" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>19</v>
       </c>
@@ -820,29 +784,29 @@
       <c r="D5" s="1">
         <v>0</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="5">
         <f>P5+0.4</f>
         <v>47</v>
       </c>
       <c r="F5" s="2">
         <v>18.100000000000001</v>
       </c>
-      <c r="G5" s="1">
-        <v>37</v>
-      </c>
-      <c r="H5" s="17">
+      <c r="G5" s="4">
+        <v>37</v>
+      </c>
+      <c r="H5" s="8">
         <v>29.986000000000001</v>
       </c>
-      <c r="I5" s="10">
+      <c r="I5" s="4">
         <v>7.37</v>
       </c>
-      <c r="J5" s="10">
+      <c r="J5" s="4">
         <v>7.2</v>
       </c>
-      <c r="K5" s="11">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="L5" s="16">
+      <c r="K5" s="5">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="L5" s="7">
         <v>13.90875</v>
       </c>
       <c r="M5" s="1">
@@ -858,7 +822,7 @@
         <v>46.6</v>
       </c>
     </row>
-    <row r="6" spans="1:16" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>20</v>
       </c>
@@ -871,28 +835,28 @@
       <c r="D6" s="1">
         <v>0</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="5">
         <v>49</v>
       </c>
       <c r="F6" s="2">
         <v>16.399999999999999</v>
       </c>
-      <c r="G6" s="1">
-        <v>37</v>
-      </c>
-      <c r="H6" s="17">
+      <c r="G6" s="4">
+        <v>37</v>
+      </c>
+      <c r="H6" s="8">
         <v>28.3</v>
       </c>
-      <c r="I6" s="10">
+      <c r="I6" s="4">
         <v>7.37</v>
       </c>
-      <c r="J6" s="10">
+      <c r="J6" s="4">
         <v>7.2</v>
       </c>
-      <c r="K6" s="11">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="L6" s="16">
+      <c r="K6" s="5">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="L6" s="7">
         <v>11.2525</v>
       </c>
       <c r="M6" s="1">
@@ -908,7 +872,7 @@
         <v>48.7</v>
       </c>
     </row>
-    <row r="7" spans="1:16" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>21</v>
       </c>
@@ -921,29 +885,29 @@
       <c r="D7" s="1">
         <v>0</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="5">
         <f>P7+0.4</f>
         <v>45.4</v>
       </c>
       <c r="F7" s="2">
         <v>18.2</v>
       </c>
-      <c r="G7" s="1">
-        <v>37</v>
-      </c>
-      <c r="H7" s="17">
+      <c r="G7" s="4">
+        <v>37</v>
+      </c>
+      <c r="H7" s="8">
         <v>29.062000000000001</v>
       </c>
-      <c r="I7" s="10">
+      <c r="I7" s="4">
         <v>7.42</v>
       </c>
-      <c r="J7" s="10">
+      <c r="J7" s="4">
         <v>7.25</v>
       </c>
-      <c r="K7" s="11">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="L7" s="16">
+      <c r="K7" s="5">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="L7" s="7">
         <v>14.65</v>
       </c>
       <c r="M7" s="1">
@@ -959,7 +923,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="8" spans="1:16" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>22</v>
       </c>
@@ -972,29 +936,29 @@
       <c r="D8" s="1">
         <v>0</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="5">
         <f>P8+0.4</f>
         <v>49.9</v>
       </c>
       <c r="F8" s="2">
         <v>16.5</v>
       </c>
-      <c r="G8" s="1">
-        <v>37</v>
-      </c>
-      <c r="H8" s="17">
+      <c r="G8" s="4">
+        <v>37</v>
+      </c>
+      <c r="H8" s="8">
         <v>30.318999999999999</v>
       </c>
-      <c r="I8" s="10">
+      <c r="I8" s="4">
         <v>7.43</v>
       </c>
-      <c r="J8" s="10">
+      <c r="J8" s="4">
         <v>7.25</v>
       </c>
-      <c r="K8" s="11">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="L8" s="16">
+      <c r="K8" s="5">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="L8" s="7">
         <v>10.3575</v>
       </c>
       <c r="M8" s="1">
@@ -1010,7 +974,7 @@
         <v>49.5</v>
       </c>
     </row>
-    <row r="9" spans="1:16" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>23</v>
       </c>
@@ -1023,28 +987,28 @@
       <c r="D9" s="1">
         <v>0</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E9" s="5">
         <v>40.799999999999997</v>
       </c>
       <c r="F9" s="2">
         <v>14.8</v>
       </c>
-      <c r="G9" s="1">
-        <v>37</v>
-      </c>
-      <c r="H9" s="17">
+      <c r="G9" s="4">
+        <v>37</v>
+      </c>
+      <c r="H9" s="8">
         <v>30.564</v>
       </c>
-      <c r="I9" s="10">
+      <c r="I9" s="4">
         <v>7.41</v>
       </c>
-      <c r="J9" s="10">
+      <c r="J9" s="4">
         <v>7.23</v>
       </c>
-      <c r="K9" s="11">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="L9" s="16">
+      <c r="K9" s="5">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="L9" s="7">
         <v>12.03</v>
       </c>
       <c r="M9" s="1">
@@ -1060,7 +1024,7 @@
         <v>40.299999999999997</v>
       </c>
     </row>
-    <row r="10" spans="1:16" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>24</v>
       </c>
@@ -1073,29 +1037,29 @@
       <c r="D10" s="1">
         <v>0</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E10" s="5">
         <f>P10+0.4</f>
         <v>43.6</v>
       </c>
       <c r="F10" s="2">
         <v>14.1</v>
       </c>
-      <c r="G10" s="1">
-        <v>37</v>
-      </c>
-      <c r="H10" s="17">
+      <c r="G10" s="4">
+        <v>37</v>
+      </c>
+      <c r="H10" s="8">
         <v>29.113</v>
       </c>
-      <c r="I10" s="10">
+      <c r="I10" s="4">
         <v>7.43</v>
       </c>
-      <c r="J10" s="10">
+      <c r="J10" s="4">
         <v>7.24</v>
       </c>
-      <c r="K10" s="11">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="L10" s="16">
+      <c r="K10" s="5">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="L10" s="7">
         <v>8.5449999999999999</v>
       </c>
       <c r="M10" s="1">
@@ -1111,7 +1075,7 @@
         <v>43.2</v>
       </c>
     </row>
-    <row r="11" spans="1:16" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>25</v>
       </c>
@@ -1124,28 +1088,28 @@
       <c r="D11" s="1">
         <v>0</v>
       </c>
-      <c r="E11" s="4">
+      <c r="E11" s="5">
         <v>53.4</v>
       </c>
       <c r="F11" s="2">
         <v>12.1</v>
       </c>
-      <c r="G11" s="1">
-        <v>37</v>
-      </c>
-      <c r="H11" s="17">
+      <c r="G11" s="4">
+        <v>37</v>
+      </c>
+      <c r="H11" s="8">
         <v>29.295000000000002</v>
       </c>
-      <c r="I11" s="10">
+      <c r="I11" s="4">
         <v>7.45</v>
       </c>
-      <c r="J11" s="10">
+      <c r="J11" s="4">
         <v>7.25</v>
       </c>
-      <c r="K11" s="11">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="L11" s="16">
+      <c r="K11" s="5">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="L11" s="7">
         <v>7.9169230769230703</v>
       </c>
       <c r="M11" s="1">
@@ -1161,7 +1125,7 @@
         <v>53.2</v>
       </c>
     </row>
-    <row r="12" spans="1:16" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>26</v>
       </c>
@@ -1174,28 +1138,28 @@
       <c r="D12" s="1">
         <v>0</v>
       </c>
-      <c r="E12" s="4">
+      <c r="E12" s="5">
         <v>41.6</v>
       </c>
       <c r="F12" s="2">
         <v>14.3</v>
       </c>
-      <c r="G12" s="1">
-        <v>37</v>
-      </c>
-      <c r="H12" s="17">
+      <c r="G12" s="4">
+        <v>37</v>
+      </c>
+      <c r="H12" s="8">
         <v>28.762</v>
       </c>
-      <c r="I12" s="10">
+      <c r="I12" s="4">
         <v>7.42</v>
       </c>
-      <c r="J12" s="10">
+      <c r="J12" s="4">
         <v>7.24</v>
       </c>
-      <c r="K12" s="11">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="L12" s="16">
+      <c r="K12" s="5">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="L12" s="7">
         <v>13.5971428571429</v>
       </c>
       <c r="M12" s="1">
@@ -1211,7 +1175,7 @@
         <v>41.1</v>
       </c>
     </row>
-    <row r="13" spans="1:16" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>27</v>
       </c>
@@ -1224,28 +1188,28 @@
       <c r="D13" s="1">
         <v>0</v>
       </c>
-      <c r="E13" s="4">
+      <c r="E13" s="5">
         <v>44.4</v>
       </c>
       <c r="F13" s="2">
         <v>11.5</v>
       </c>
-      <c r="G13" s="1">
-        <v>37</v>
-      </c>
-      <c r="H13" s="17">
+      <c r="G13" s="4">
+        <v>37</v>
+      </c>
+      <c r="H13" s="8">
         <v>29.472000000000001</v>
       </c>
-      <c r="I13" s="10">
+      <c r="I13" s="4">
         <v>7.48</v>
       </c>
-      <c r="J13" s="10">
+      <c r="J13" s="4">
         <v>7.27</v>
       </c>
-      <c r="K13" s="11">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="L13" s="16">
+      <c r="K13" s="5">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="L13" s="7">
         <v>11.398571428571399</v>
       </c>
       <c r="M13" s="1">
@@ -1261,7 +1225,7 @@
         <v>44.1</v>
       </c>
     </row>
-    <row r="14" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>28</v>
       </c>
@@ -1280,22 +1244,22 @@
       <c r="F14" s="2">
         <v>14.8</v>
       </c>
-      <c r="G14">
-        <v>37</v>
-      </c>
-      <c r="H14" s="3">
+      <c r="G14" s="4">
+        <v>37</v>
+      </c>
+      <c r="H14" s="8">
         <v>30.393999999999998</v>
       </c>
-      <c r="I14" s="10">
+      <c r="I14" s="4">
         <v>7.42</v>
       </c>
-      <c r="J14" s="10">
+      <c r="J14" s="4">
         <v>7.24</v>
       </c>
-      <c r="K14" s="11">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="L14" s="16">
+      <c r="K14" s="5">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="L14" s="7">
         <v>10.1269230769231</v>
       </c>
       <c r="M14" t="s">
@@ -1311,7 +1275,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="15" spans="1:16" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>29</v>
       </c>
@@ -1324,29 +1288,29 @@
       <c r="D15" s="1">
         <v>0</v>
       </c>
-      <c r="E15" s="4">
+      <c r="E15" s="5">
         <f>P15+0.4</f>
         <v>46</v>
       </c>
       <c r="F15" s="2">
         <v>14.6</v>
       </c>
-      <c r="G15" s="1">
-        <v>37</v>
-      </c>
-      <c r="H15" s="17">
+      <c r="G15" s="4">
+        <v>37</v>
+      </c>
+      <c r="H15" s="8">
         <v>28.428999999999998</v>
       </c>
-      <c r="I15" s="10">
+      <c r="I15" s="4">
         <v>7.38</v>
       </c>
-      <c r="J15" s="10">
+      <c r="J15" s="4">
         <v>7.2</v>
       </c>
-      <c r="K15" s="11">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="L15" s="16">
+      <c r="K15" s="5">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="L15" s="7">
         <v>12.3</v>
       </c>
       <c r="M15" s="1">
@@ -1362,7 +1326,7 @@
         <v>45.6</v>
       </c>
     </row>
-    <row r="16" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>30</v>
       </c>
@@ -1381,22 +1345,22 @@
       <c r="F16" s="2">
         <v>14.3</v>
       </c>
-      <c r="G16">
-        <v>37</v>
-      </c>
-      <c r="H16" s="3">
+      <c r="G16" s="4">
+        <v>37</v>
+      </c>
+      <c r="H16" s="8">
         <v>28.387</v>
       </c>
-      <c r="I16" s="10">
+      <c r="I16" s="4">
         <v>7.38</v>
       </c>
-      <c r="J16" s="10">
+      <c r="J16" s="4">
         <v>7.2</v>
       </c>
-      <c r="K16" s="11">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="L16" s="12" t="s">
+      <c r="K16" s="5">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="L16" s="6" t="s">
         <v>52</v>
       </c>
       <c r="M16" t="s">
@@ -1412,7 +1376,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="17" spans="1:16" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>31</v>
       </c>
@@ -1425,28 +1389,28 @@
       <c r="D17" s="1">
         <v>0</v>
       </c>
-      <c r="E17" s="4">
+      <c r="E17" s="5">
         <v>40.799999999999997</v>
       </c>
       <c r="F17" s="2">
         <v>14.6</v>
       </c>
-      <c r="G17" s="1">
-        <v>37</v>
-      </c>
-      <c r="H17" s="17">
+      <c r="G17" s="4">
+        <v>37</v>
+      </c>
+      <c r="H17" s="8">
         <v>29.334</v>
       </c>
-      <c r="I17" s="10">
+      <c r="I17" s="4">
         <v>7.36</v>
       </c>
-      <c r="J17" s="10">
+      <c r="J17" s="4">
         <v>7.18</v>
       </c>
-      <c r="K17" s="11">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="L17" s="16">
+      <c r="K17" s="5">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="L17" s="7">
         <v>8.5850000000000009</v>
       </c>
       <c r="M17" s="1">
@@ -1462,55 +1426,57 @@
         <v>40.299999999999997</v>
       </c>
     </row>
-    <row r="18" spans="1:16" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="6" t="s">
+    <row r="18" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B18" s="6">
+      <c r="B18" s="2">
         <v>50</v>
       </c>
-      <c r="C18" s="6">
+      <c r="C18" s="2">
         <v>28</v>
       </c>
-      <c r="D18" s="7">
-        <v>0</v>
-      </c>
-      <c r="E18" s="9">
-        <f>P18+0.4</f>
-        <v>45.4</v>
-      </c>
-      <c r="F18" s="6">
+      <c r="D18" s="1">
+        <v>0</v>
+      </c>
+      <c r="E18" s="5">
+        <v>45.3</v>
+      </c>
+      <c r="F18" s="2">
         <v>17.100000000000001</v>
       </c>
-      <c r="G18" s="7">
+      <c r="G18" s="4">
         <v>37</v>
       </c>
       <c r="H18" s="8">
         <v>29.678000000000001</v>
       </c>
-      <c r="I18" s="13">
+      <c r="I18" s="4">
         <v>7.3</v>
       </c>
-      <c r="J18" s="13">
+      <c r="J18" s="4">
         <v>7.15</v>
       </c>
-      <c r="K18" s="14">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="L18" s="15">
+      <c r="K18" s="5">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="L18" s="7">
         <v>16.2433333333333</v>
       </c>
-      <c r="N18" s="7">
-        <v>1E-3</v>
-      </c>
-      <c r="O18" s="7">
+      <c r="M18" s="1">
+        <v>44.8</v>
+      </c>
+      <c r="N18" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="O18" s="1">
         <v>26.3</v>
       </c>
-      <c r="P18" s="7">
+      <c r="P18" s="1">
         <v>45</v>
       </c>
     </row>
-    <row r="19" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>33</v>
       </c>
@@ -1520,45 +1486,47 @@
       <c r="C19" s="2">
         <v>35</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="1">
         <v>0</v>
       </c>
       <c r="E19" s="5">
-        <f>P19+0.4</f>
-        <v>54.4</v>
+        <v>54.3</v>
       </c>
       <c r="F19" s="2">
         <v>17.5</v>
       </c>
-      <c r="G19">
-        <v>37</v>
-      </c>
-      <c r="H19" s="3">
+      <c r="G19" s="4">
+        <v>37</v>
+      </c>
+      <c r="H19" s="8">
         <v>29.645</v>
       </c>
-      <c r="I19" s="10">
+      <c r="I19" s="4">
         <v>7.39</v>
       </c>
-      <c r="J19" s="10">
+      <c r="J19" s="4">
         <v>7.22</v>
       </c>
-      <c r="K19" s="11">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="L19" s="16">
+      <c r="K19" s="5">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="L19" s="7">
         <v>12.6657142857143</v>
       </c>
-      <c r="N19">
-        <v>1E-3</v>
-      </c>
-      <c r="O19">
+      <c r="M19" s="1">
+        <v>51.5</v>
+      </c>
+      <c r="N19" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="O19" s="1">
         <v>20.8</v>
       </c>
-      <c r="P19">
+      <c r="P19" s="1">
         <v>54</v>
       </c>
     </row>
-    <row r="20" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>34</v>
       </c>
@@ -1568,7 +1536,7 @@
       <c r="C20" s="2">
         <v>39</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="1">
         <v>0</v>
       </c>
       <c r="E20" s="5">
@@ -1578,35 +1546,38 @@
       <c r="F20" s="2">
         <v>15.6</v>
       </c>
-      <c r="G20">
-        <v>37</v>
-      </c>
-      <c r="H20" s="3">
+      <c r="G20" s="4">
+        <v>37</v>
+      </c>
+      <c r="H20" s="8">
         <v>28.920999999999999</v>
       </c>
-      <c r="I20" s="10">
+      <c r="I20" s="4">
         <v>7.4</v>
       </c>
-      <c r="J20" s="10">
+      <c r="J20" s="4">
         <v>7.22</v>
       </c>
-      <c r="K20" s="11">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="L20" s="16">
+      <c r="K20" s="5">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="L20" s="7">
         <v>12.297499999999999</v>
       </c>
-      <c r="N20">
-        <v>1E-3</v>
-      </c>
-      <c r="O20">
+      <c r="M20" s="1">
+        <v>31.5</v>
+      </c>
+      <c r="N20" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="O20" s="1">
         <v>25.2</v>
       </c>
-      <c r="P20">
+      <c r="P20" s="1">
         <v>53.1</v>
       </c>
     </row>
-    <row r="21" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>35</v>
       </c>
@@ -1625,22 +1596,22 @@
       <c r="F21" s="2">
         <v>16.3</v>
       </c>
-      <c r="G21">
-        <v>37</v>
-      </c>
-      <c r="H21" s="3">
+      <c r="G21" s="4">
+        <v>37</v>
+      </c>
+      <c r="H21" s="8">
         <v>28.916</v>
       </c>
-      <c r="I21" s="10">
+      <c r="I21" s="4">
         <v>7.35</v>
       </c>
-      <c r="J21" s="10">
+      <c r="J21" s="4">
         <v>7.18</v>
       </c>
-      <c r="K21" s="11">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="L21" s="16">
+      <c r="K21" s="5">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="L21" s="7">
         <v>14.8325</v>
       </c>
       <c r="M21" t="s">
@@ -1656,7 +1627,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="22" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>36</v>
       </c>
@@ -1666,45 +1637,47 @@
       <c r="C22" s="2">
         <v>30</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="1">
         <v>0</v>
       </c>
       <c r="E22" s="5">
-        <f>P22+0.4</f>
-        <v>51.3</v>
+        <v>51.2</v>
       </c>
       <c r="F22" s="2">
         <v>15.6</v>
       </c>
-      <c r="G22">
-        <v>37</v>
-      </c>
-      <c r="H22" s="3">
+      <c r="G22" s="4">
+        <v>37</v>
+      </c>
+      <c r="H22" s="8">
         <v>28.919</v>
       </c>
-      <c r="I22" s="10">
+      <c r="I22" s="4">
         <v>7.32</v>
       </c>
-      <c r="J22" s="10">
+      <c r="J22" s="4">
         <v>7.15</v>
       </c>
-      <c r="K22" s="11">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="L22" s="16">
+      <c r="K22" s="5">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="L22" s="7">
         <v>12.047499999999999</v>
       </c>
-      <c r="N22">
-        <v>1E-3</v>
-      </c>
-      <c r="O22">
+      <c r="M22" s="1">
+        <v>45.5</v>
+      </c>
+      <c r="N22" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="O22" s="1">
         <v>20.5</v>
       </c>
-      <c r="P22">
+      <c r="P22" s="1">
         <v>50.9</v>
       </c>
     </row>
-    <row r="23" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>37</v>
       </c>
@@ -1714,45 +1687,47 @@
       <c r="C23" s="2">
         <v>32</v>
       </c>
-      <c r="D23">
+      <c r="D23" s="1">
         <v>0</v>
       </c>
       <c r="E23" s="5">
-        <f>P23+0.4</f>
-        <v>48.5</v>
+        <v>48.4</v>
       </c>
       <c r="F23" s="2">
         <v>15.6</v>
       </c>
-      <c r="G23">
-        <v>37</v>
-      </c>
-      <c r="H23" s="3">
+      <c r="G23" s="4">
+        <v>37</v>
+      </c>
+      <c r="H23" s="8">
         <v>29.498999999999999</v>
       </c>
-      <c r="I23" s="10">
+      <c r="I23" s="4">
         <v>7.4</v>
       </c>
-      <c r="J23" s="10">
+      <c r="J23" s="4">
         <v>7.22</v>
       </c>
-      <c r="K23" s="11">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="L23" s="16">
+      <c r="K23" s="5">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="L23" s="7">
         <v>15.4175</v>
       </c>
-      <c r="N23">
-        <v>1E-3</v>
-      </c>
-      <c r="O23">
+      <c r="M23" s="1">
+        <v>49.8</v>
+      </c>
+      <c r="N23" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="O23" s="1">
         <v>21.9</v>
       </c>
-      <c r="P23">
+      <c r="P23" s="1">
         <v>48.1</v>
       </c>
     </row>
-    <row r="24" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>38</v>
       </c>
@@ -1762,45 +1737,48 @@
       <c r="C24" s="2">
         <v>36</v>
       </c>
-      <c r="D24">
+      <c r="D24" s="1">
         <v>0</v>
       </c>
       <c r="E24" s="5">
-        <f>P24+0.4</f>
+        <f t="shared" ref="E22:E37" si="0">P24+0.4</f>
         <v>51.5</v>
       </c>
       <c r="F24" s="2">
         <v>15.1</v>
       </c>
-      <c r="G24">
-        <v>37</v>
-      </c>
-      <c r="H24" s="3">
+      <c r="G24" s="4">
+        <v>37</v>
+      </c>
+      <c r="H24" s="8">
         <v>28.47</v>
       </c>
-      <c r="I24" s="10">
+      <c r="I24" s="4">
         <v>7.36</v>
       </c>
-      <c r="J24" s="10">
+      <c r="J24" s="4">
         <v>7.19</v>
       </c>
-      <c r="K24" s="11">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="L24" s="16">
+      <c r="K24" s="5">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="L24" s="7">
         <v>15.775</v>
       </c>
-      <c r="N24">
-        <v>1E-3</v>
-      </c>
-      <c r="O24">
+      <c r="M24" s="1">
+        <v>40.5</v>
+      </c>
+      <c r="N24" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="O24" s="1">
         <v>25.2</v>
       </c>
-      <c r="P24">
+      <c r="P24" s="1">
         <v>51.1</v>
       </c>
     </row>
-    <row r="25" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>39</v>
       </c>
@@ -1810,45 +1788,48 @@
       <c r="C25" s="2">
         <v>32</v>
       </c>
-      <c r="D25">
+      <c r="D25" s="1">
         <v>0</v>
       </c>
       <c r="E25" s="5">
-        <f>P25+0.4</f>
+        <f t="shared" si="0"/>
         <v>49.5</v>
       </c>
       <c r="F25" s="2">
         <v>16.8</v>
       </c>
-      <c r="G25">
-        <v>37</v>
-      </c>
-      <c r="H25" s="3">
+      <c r="G25" s="4">
+        <v>37</v>
+      </c>
+      <c r="H25" s="8">
         <v>29.462</v>
       </c>
-      <c r="I25" s="10">
+      <c r="I25" s="4">
         <v>7.36</v>
       </c>
-      <c r="J25" s="10">
+      <c r="J25" s="4">
         <v>7.19</v>
       </c>
-      <c r="K25" s="11">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="L25" s="16">
+      <c r="K25" s="5">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="L25" s="7">
         <v>14.9725</v>
       </c>
-      <c r="N25">
-        <v>1E-3</v>
-      </c>
-      <c r="O25">
+      <c r="M25" s="1">
+        <v>43.7</v>
+      </c>
+      <c r="N25" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="O25" s="1">
         <v>25.6</v>
       </c>
-      <c r="P25">
+      <c r="P25" s="1">
         <v>49.1</v>
       </c>
     </row>
-    <row r="26" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>40</v>
       </c>
@@ -1858,45 +1839,47 @@
       <c r="C26" s="2">
         <v>31</v>
       </c>
-      <c r="D26">
+      <c r="D26" s="1">
         <v>0</v>
       </c>
       <c r="E26" s="5">
-        <f>P26+0.4</f>
-        <v>51.5</v>
+        <v>51.4</v>
       </c>
       <c r="F26" s="2">
         <v>14</v>
       </c>
-      <c r="G26">
-        <v>37</v>
-      </c>
-      <c r="H26" s="3">
+      <c r="G26" s="4">
+        <v>37</v>
+      </c>
+      <c r="H26" s="8">
         <v>29.204000000000001</v>
       </c>
-      <c r="I26" s="10">
+      <c r="I26" s="4">
         <v>7.4</v>
       </c>
-      <c r="J26" s="10">
+      <c r="J26" s="4">
         <v>7.21</v>
       </c>
-      <c r="K26" s="11">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="L26" s="16">
+      <c r="K26" s="5">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="L26" s="7">
         <v>16.684999999999999</v>
       </c>
-      <c r="N26">
-        <v>1E-3</v>
-      </c>
-      <c r="O26">
+      <c r="M26" s="1">
+        <v>70.5</v>
+      </c>
+      <c r="N26" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="O26" s="1">
         <v>16.2</v>
       </c>
-      <c r="P26">
+      <c r="P26" s="1">
         <v>51.1</v>
       </c>
     </row>
-    <row r="27" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>41</v>
       </c>
@@ -1906,45 +1889,47 @@
       <c r="C27" s="2">
         <v>35</v>
       </c>
-      <c r="D27">
+      <c r="D27" s="1">
         <v>0</v>
       </c>
       <c r="E27" s="5">
-        <f>P27+0.4</f>
-        <v>58.3</v>
+        <v>58</v>
       </c>
       <c r="F27" s="2">
         <v>13.7</v>
       </c>
-      <c r="G27">
-        <v>37</v>
-      </c>
-      <c r="H27" s="3">
+      <c r="G27" s="4">
+        <v>37</v>
+      </c>
+      <c r="H27" s="8">
         <v>30.183</v>
       </c>
-      <c r="I27" s="10">
+      <c r="I27" s="4">
         <v>7.4</v>
       </c>
-      <c r="J27" s="10">
+      <c r="J27" s="4">
         <v>7.21</v>
       </c>
-      <c r="K27" s="11">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="L27" s="16">
+      <c r="K27" s="5">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="L27" s="7">
         <v>10.293333333333299</v>
       </c>
-      <c r="N27">
-        <v>1E-3</v>
-      </c>
-      <c r="O27">
+      <c r="M27" s="1">
+        <v>59.2</v>
+      </c>
+      <c r="N27" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="O27" s="1">
         <v>6.6</v>
       </c>
-      <c r="P27">
+      <c r="P27" s="1">
         <v>57.9</v>
       </c>
     </row>
-    <row r="28" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>42</v>
       </c>
@@ -1954,45 +1939,48 @@
       <c r="C28" s="2">
         <v>34</v>
       </c>
-      <c r="D28">
+      <c r="D28" s="1">
         <v>0</v>
       </c>
       <c r="E28" s="5">
-        <f>P28+0.4</f>
+        <f t="shared" si="0"/>
         <v>47.199999999999996</v>
       </c>
       <c r="F28" s="2">
         <v>13.2</v>
       </c>
-      <c r="G28">
-        <v>37</v>
-      </c>
-      <c r="H28" s="3">
+      <c r="G28" s="4">
+        <v>37</v>
+      </c>
+      <c r="H28" s="8">
         <v>30.382999999999999</v>
       </c>
-      <c r="I28" s="10">
+      <c r="I28" s="4">
         <v>7.45</v>
       </c>
-      <c r="J28" s="10">
+      <c r="J28" s="4">
         <v>7.27</v>
       </c>
-      <c r="K28" s="11">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="L28" s="16">
+      <c r="K28" s="5">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="L28" s="7">
         <v>10.647500000000001</v>
       </c>
-      <c r="N28">
-        <v>1E-3</v>
-      </c>
-      <c r="O28">
+      <c r="M28" s="1">
+        <v>31</v>
+      </c>
+      <c r="N28" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="O28" s="1">
         <v>22.1</v>
       </c>
-      <c r="P28">
+      <c r="P28" s="1">
         <v>46.8</v>
       </c>
     </row>
-    <row r="29" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>43</v>
       </c>
@@ -2002,45 +1990,47 @@
       <c r="C29" s="2">
         <v>35</v>
       </c>
-      <c r="D29">
+      <c r="D29" s="1">
         <v>0</v>
       </c>
       <c r="E29" s="5">
-        <f>P29+0.4</f>
-        <v>50.5</v>
+        <v>50.4</v>
       </c>
       <c r="F29" s="2">
         <v>10.3</v>
       </c>
-      <c r="G29">
-        <v>37</v>
-      </c>
-      <c r="H29" s="3">
+      <c r="G29" s="4">
+        <v>37</v>
+      </c>
+      <c r="H29" s="8">
         <v>30.535</v>
       </c>
-      <c r="I29" s="10">
+      <c r="I29" s="4">
         <v>7.46</v>
       </c>
-      <c r="J29" s="10">
+      <c r="J29" s="4">
         <v>7.26</v>
       </c>
-      <c r="K29" s="11">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="L29" s="16">
+      <c r="K29" s="5">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="L29" s="7">
         <v>9.4499999999999993</v>
       </c>
-      <c r="N29">
-        <v>1E-3</v>
-      </c>
-      <c r="O29">
+      <c r="M29" s="1">
+        <v>33.5</v>
+      </c>
+      <c r="N29" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="O29" s="1">
         <v>14.4</v>
       </c>
-      <c r="P29">
+      <c r="P29" s="1">
         <v>50.1</v>
       </c>
     </row>
-    <row r="30" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>44</v>
       </c>
@@ -2050,45 +2040,47 @@
       <c r="C30" s="2">
         <v>36</v>
       </c>
-      <c r="D30">
+      <c r="D30" s="1">
         <v>0</v>
       </c>
       <c r="E30" s="5">
-        <f>P30+0.4</f>
-        <v>50.9</v>
+        <v>50.8</v>
       </c>
       <c r="F30" s="2">
         <v>11.6</v>
       </c>
-      <c r="G30">
-        <v>37</v>
-      </c>
-      <c r="H30" s="3">
+      <c r="G30" s="4">
+        <v>37</v>
+      </c>
+      <c r="H30" s="8">
         <v>30.561</v>
       </c>
-      <c r="I30" s="10">
+      <c r="I30" s="4">
         <v>7.47</v>
       </c>
-      <c r="J30" s="10">
+      <c r="J30" s="4">
         <v>7.27</v>
       </c>
-      <c r="K30" s="11">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="L30" s="16">
+      <c r="K30" s="5">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="L30" s="7">
         <v>9.5399999999999991</v>
       </c>
-      <c r="N30">
-        <v>1E-3</v>
-      </c>
-      <c r="O30">
+      <c r="M30" s="1">
+        <v>37</v>
+      </c>
+      <c r="N30" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="O30" s="1">
         <v>14</v>
       </c>
-      <c r="P30">
+      <c r="P30" s="1">
         <v>50.5</v>
       </c>
     </row>
-    <row r="31" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>45</v>
       </c>
@@ -2098,45 +2090,48 @@
       <c r="C31" s="2">
         <v>32</v>
       </c>
-      <c r="D31">
+      <c r="D31" s="1">
         <v>0</v>
       </c>
       <c r="E31" s="5">
-        <f>P31+0.4</f>
+        <f t="shared" si="0"/>
         <v>43.199999999999996</v>
       </c>
       <c r="F31" s="2">
         <v>12.9</v>
       </c>
-      <c r="G31">
-        <v>37</v>
-      </c>
-      <c r="H31" s="3">
+      <c r="G31" s="4">
+        <v>37</v>
+      </c>
+      <c r="H31" s="8">
         <v>30.106999999999999</v>
       </c>
-      <c r="I31" s="10">
+      <c r="I31" s="4">
         <v>7.41</v>
       </c>
-      <c r="J31" s="10">
+      <c r="J31" s="4">
         <v>7.24</v>
       </c>
-      <c r="K31" s="11">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="L31" s="16">
+      <c r="K31" s="5">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="L31" s="7">
         <v>14.7525</v>
       </c>
-      <c r="N31">
-        <v>1E-3</v>
-      </c>
-      <c r="O31">
+      <c r="M31" s="1">
+        <v>31.8</v>
+      </c>
+      <c r="N31" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="O31" s="1">
         <v>26.8</v>
       </c>
-      <c r="P31">
+      <c r="P31" s="1">
         <v>42.8</v>
       </c>
     </row>
-    <row r="32" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>46</v>
       </c>
@@ -2146,45 +2141,48 @@
       <c r="C32" s="2">
         <v>29</v>
       </c>
-      <c r="D32">
+      <c r="D32" s="1">
         <v>0</v>
       </c>
       <c r="E32" s="5">
-        <f>P32+0.4</f>
+        <f t="shared" si="0"/>
         <v>40.4</v>
       </c>
       <c r="F32" s="2">
         <v>13.1</v>
       </c>
-      <c r="G32">
-        <v>37</v>
-      </c>
-      <c r="H32" s="3">
+      <c r="G32" s="4">
+        <v>37</v>
+      </c>
+      <c r="H32" s="8">
         <v>31.777000000000001</v>
       </c>
-      <c r="I32" s="10">
+      <c r="I32" s="4">
         <v>7.36</v>
       </c>
-      <c r="J32" s="10">
+      <c r="J32" s="4">
         <v>7.18</v>
       </c>
-      <c r="K32" s="11">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="L32" s="16">
+      <c r="K32" s="5">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="L32" s="7">
         <v>15.957000000000001</v>
       </c>
-      <c r="N32">
-        <v>1E-3</v>
-      </c>
-      <c r="O32">
+      <c r="M32" s="1">
+        <v>29</v>
+      </c>
+      <c r="N32" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="O32" s="1">
         <v>28.1</v>
       </c>
-      <c r="P32">
+      <c r="P32" s="1">
         <v>40</v>
       </c>
     </row>
-    <row r="33" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>47</v>
       </c>
@@ -2194,45 +2192,47 @@
       <c r="C33" s="2">
         <v>32</v>
       </c>
-      <c r="D33">
+      <c r="D33" s="1">
         <v>0</v>
       </c>
       <c r="E33" s="5">
-        <f>P33+0.4</f>
-        <v>47.6</v>
+        <v>47.5</v>
       </c>
       <c r="F33" s="2">
         <v>14.6</v>
       </c>
-      <c r="G33">
-        <v>37</v>
-      </c>
-      <c r="H33" s="3">
+      <c r="G33" s="4">
+        <v>37</v>
+      </c>
+      <c r="H33" s="8">
         <v>28.29</v>
       </c>
-      <c r="I33" s="10">
+      <c r="I33" s="4">
         <v>7.34</v>
       </c>
-      <c r="J33" s="10">
+      <c r="J33" s="4">
         <v>7.17</v>
       </c>
-      <c r="K33" s="11">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="L33" s="16">
+      <c r="K33" s="5">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="L33" s="7">
         <v>12.0825</v>
       </c>
-      <c r="N33">
-        <v>1E-3</v>
-      </c>
-      <c r="O33">
+      <c r="M33" s="1">
+        <v>30</v>
+      </c>
+      <c r="N33" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="O33" s="1">
         <v>25</v>
       </c>
-      <c r="P33">
+      <c r="P33" s="1">
         <v>47.2</v>
       </c>
     </row>
-    <row r="34" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>48</v>
       </c>
@@ -2242,45 +2242,47 @@
       <c r="C34" s="2">
         <v>35</v>
       </c>
-      <c r="D34">
+      <c r="D34" s="1">
         <v>0</v>
       </c>
       <c r="E34" s="5">
-        <f>P34+0.4</f>
-        <v>49.199999999999996</v>
+        <v>49.1</v>
       </c>
       <c r="F34" s="2">
         <v>14.1</v>
       </c>
-      <c r="G34">
-        <v>37</v>
-      </c>
-      <c r="H34" s="3">
+      <c r="G34" s="4">
+        <v>37</v>
+      </c>
+      <c r="H34" s="8">
         <v>28.29</v>
       </c>
-      <c r="I34" s="10">
+      <c r="I34" s="4">
         <v>7.42</v>
       </c>
-      <c r="J34" s="10">
+      <c r="J34" s="4">
         <v>7.24</v>
       </c>
-      <c r="K34" s="11">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="L34" s="16">
+      <c r="K34" s="5">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="L34" s="7">
         <v>10.49</v>
       </c>
-      <c r="N34">
-        <v>1E-3</v>
-      </c>
-      <c r="O34">
+      <c r="M34" s="1">
+        <v>33.200000000000003</v>
+      </c>
+      <c r="N34" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="O34" s="1">
         <v>20.2</v>
       </c>
-      <c r="P34">
+      <c r="P34" s="1">
         <v>48.8</v>
       </c>
     </row>
-    <row r="35" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>49</v>
       </c>
@@ -2290,45 +2292,48 @@
       <c r="C35" s="2">
         <v>27</v>
       </c>
-      <c r="D35">
+      <c r="D35" s="1">
         <v>0</v>
       </c>
       <c r="E35" s="5">
-        <f>P35+0.4</f>
+        <f t="shared" si="0"/>
         <v>39</v>
       </c>
       <c r="F35" s="2">
         <v>14.3</v>
       </c>
-      <c r="G35">
-        <v>37</v>
-      </c>
-      <c r="H35" s="3">
+      <c r="G35" s="4">
+        <v>37</v>
+      </c>
+      <c r="H35" s="8">
         <v>28.76</v>
       </c>
-      <c r="I35" s="10">
+      <c r="I35" s="4">
         <v>7.29</v>
       </c>
-      <c r="J35" s="10">
+      <c r="J35" s="4">
         <v>7.12</v>
       </c>
-      <c r="K35" s="11">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="L35" s="16">
+      <c r="K35" s="5">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="L35" s="7">
         <v>14.9625</v>
       </c>
-      <c r="N35">
-        <v>1E-3</v>
-      </c>
-      <c r="O35">
+      <c r="M35" s="1">
+        <v>23.4</v>
+      </c>
+      <c r="N35" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="O35" s="1">
         <v>31.9</v>
       </c>
-      <c r="P35">
+      <c r="P35" s="1">
         <v>38.6</v>
       </c>
     </row>
-    <row r="36" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>50</v>
       </c>
@@ -2338,45 +2343,47 @@
       <c r="C36" s="2">
         <v>34</v>
       </c>
-      <c r="D36">
+      <c r="D36" s="1">
         <v>0</v>
       </c>
       <c r="E36" s="5">
-        <f>P36+0.4</f>
-        <v>49.6</v>
+        <v>49.5</v>
       </c>
       <c r="F36" s="2">
         <v>14.7</v>
       </c>
-      <c r="G36">
-        <v>37</v>
-      </c>
-      <c r="H36" s="3">
+      <c r="G36" s="4">
+        <v>37</v>
+      </c>
+      <c r="H36" s="8">
         <v>28.361000000000001</v>
       </c>
-      <c r="I36" s="10">
+      <c r="I36" s="4">
         <v>7.31</v>
       </c>
-      <c r="J36" s="10">
+      <c r="J36" s="4">
         <v>7.15</v>
       </c>
-      <c r="K36" s="11">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="L36" s="16">
+      <c r="K36" s="5">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="L36" s="7">
         <v>11.3184615384615</v>
       </c>
-      <c r="N36">
-        <v>1E-3</v>
-      </c>
-      <c r="O36">
+      <c r="M36" s="1">
+        <v>36.5</v>
+      </c>
+      <c r="N36" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="O36" s="1">
         <v>19.600000000000001</v>
       </c>
-      <c r="P36">
+      <c r="P36" s="1">
         <v>49.2</v>
       </c>
     </row>
-    <row r="37" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>51</v>
       </c>
@@ -2386,45 +2393,49 @@
       <c r="C37" s="2">
         <v>32</v>
       </c>
-      <c r="D37">
+      <c r="D37" s="1">
         <v>0</v>
       </c>
       <c r="E37" s="5">
-        <f>P37+0.4</f>
+        <f t="shared" si="0"/>
         <v>45</v>
       </c>
       <c r="F37" s="2">
         <v>13.5</v>
       </c>
-      <c r="G37">
-        <v>37</v>
-      </c>
-      <c r="H37" s="3">
+      <c r="G37" s="4">
+        <v>37</v>
+      </c>
+      <c r="H37" s="8">
         <v>28.712</v>
       </c>
-      <c r="I37" s="10">
+      <c r="I37" s="4">
         <v>7.39</v>
       </c>
-      <c r="J37" s="10">
+      <c r="J37" s="4">
         <v>7.2</v>
       </c>
-      <c r="K37" s="11">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="L37" s="16">
+      <c r="K37" s="5">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="L37" s="7">
         <v>13.818571428571399</v>
       </c>
-      <c r="N37">
-        <v>1E-3</v>
-      </c>
-      <c r="O37">
+      <c r="M37" s="1">
+        <v>28.7</v>
+      </c>
+      <c r="N37" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="O37" s="1">
         <v>27.2</v>
       </c>
-      <c r="P37">
+      <c r="P37" s="1">
         <v>44.6</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/DM_input_4200.xlsx
+++ b/DM_input_4200.xlsx
@@ -1,15 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21901"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04B8D0EA-2876-4C0D-AA96-E73972C13B49}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -180,7 +189,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -341,6 +350,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -376,6 +402,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -551,11 +594,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U20" sqref="U20"/>
+      <selection activeCell="E2" sqref="E2:E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1741,7 +1784,7 @@
         <v>0</v>
       </c>
       <c r="E24" s="5">
-        <f t="shared" ref="E22:E37" si="0">P24+0.4</f>
+        <f t="shared" ref="E24:E37" si="0">P24+0.4</f>
         <v>51.5</v>
       </c>
       <c r="F24" s="2">
